--- a/House Price Prediction dataset.xlsx
+++ b/House Price Prediction dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\NNML-SRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A1EFC-37EF-4B93-A112-0FAA4A9B7B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC596E-2341-4496-913F-DF5489B07725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(i)             Implement linea" sheetId="1" r:id="rId1"/>
@@ -307,9 +307,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -320,7 +320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2200</v>
       </c>
@@ -331,7 +331,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1800</v>
       </c>
@@ -342,7 +342,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1500</v>
       </c>
@@ -353,7 +353,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2400</v>
       </c>
@@ -364,7 +364,7 @@
         <v>575000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1700</v>
       </c>
@@ -375,7 +375,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2000</v>
       </c>
@@ -386,7 +386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1200</v>
       </c>
@@ -397,7 +397,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1600</v>
       </c>
@@ -408,7 +408,7 @@
         <v>385000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2500</v>
       </c>
@@ -419,7 +419,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1900</v>
       </c>
@@ -428,7 +428,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>100000</v>
       </c>
@@ -439,7 +439,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2100</v>
       </c>
@@ -450,7 +450,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1400</v>
       </c>
@@ -461,7 +461,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1800</v>
       </c>
@@ -472,7 +472,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2300</v>
       </c>
@@ -483,7 +483,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1100</v>
       </c>
@@ -494,7 +494,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1500</v>
       </c>
@@ -505,7 +505,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2600</v>
       </c>
@@ -516,7 +516,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2000</v>
       </c>
@@ -527,7 +527,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1000</v>
       </c>
@@ -538,7 +538,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1700</v>
       </c>
@@ -549,7 +549,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2700</v>
       </c>
@@ -560,7 +560,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2200</v>
       </c>
@@ -571,7 +571,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1200</v>
       </c>
@@ -582,7 +582,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1400</v>
       </c>
@@ -593,7 +593,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2800</v>
       </c>
@@ -604,7 +604,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1900</v>
       </c>
@@ -615,7 +615,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>900</v>
       </c>
@@ -626,7 +626,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1600</v>
       </c>
@@ -637,7 +637,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3000</v>
       </c>
@@ -648,7 +648,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2300</v>
       </c>
@@ -659,7 +659,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>800</v>
       </c>
@@ -670,7 +670,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1300</v>
       </c>
@@ -681,7 +681,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2900</v>
       </c>
@@ -692,7 +692,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2000</v>
       </c>
@@ -703,7 +703,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>700</v>
       </c>
@@ -714,7 +714,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1500</v>
       </c>
@@ -725,7 +725,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2400</v>
       </c>
@@ -736,7 +736,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2100</v>
       </c>
@@ -747,7 +747,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>600</v>
       </c>
@@ -758,7 +758,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1200</v>
       </c>
@@ -769,7 +769,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2500</v>
       </c>
@@ -780,7 +780,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2200</v>
       </c>
@@ -791,7 +791,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>500</v>
       </c>
@@ -802,7 +802,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1000</v>
       </c>
@@ -813,7 +813,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2300</v>
       </c>
@@ -824,7 +824,7 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1800</v>
       </c>
@@ -835,7 +835,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>400</v>
       </c>
@@ -846,7 +846,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>700</v>
       </c>
@@ -857,7 +857,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1500</v>
       </c>
@@ -868,7 +868,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2400</v>
       </c>
@@ -879,7 +879,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2100</v>
       </c>
@@ -890,7 +890,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>600</v>
       </c>
@@ -901,7 +901,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>700</v>
       </c>
@@ -912,7 +912,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1500</v>
       </c>
@@ -923,7 +923,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2400</v>
       </c>
@@ -934,7 +934,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2100</v>
       </c>
@@ -945,7 +945,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>600</v>
       </c>
